--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,30 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>boring</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Aalatsivik</t>
   </si>
   <si>
-    <t>Aulatsivik</t>
+    <t>even</t>
   </si>
   <si>
-    <t>Aamaruutissat</t>
+    <t>jUst</t>
   </si>
   <si>
-    <t xml:space="preserve">Skansen </t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>text</t>
+    <t>demonstration</t>
   </si>
 </sst>
 </file>
@@ -46,8 +34,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -65,6 +53,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -73,46 +68,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,30 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +206,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,163 +308,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +397,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,30 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -512,7 +500,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,136 +518,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -989,21 +978,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1013,37 +1002,23 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5">
+  <conditionalFormatting sqref="A5;A1:A3">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="/">
+      <formula>NOT(ISERROR(SEARCH("/",A1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="(dänisch)">
-      <formula>NOT(ISERROR(SEARCH("(dänisch)",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="/">
-      <formula>NOT(ISERROR(SEARCH("/",A2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("(dänisch)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Aalatsivik</t>
+    <t>københavn</t>
   </si>
   <si>
-    <t>even</t>
+    <t>kbhvn</t>
   </si>
   <si>
-    <t>jUst</t>
+    <t>Odense</t>
   </si>
   <si>
-    <t>demonstration</t>
+    <t>Frdbg</t>
   </si>
 </sst>
 </file>
@@ -34,8 +34,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -54,6 +54,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -68,38 +75,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,8 +107,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,14 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -154,37 +148,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,37 +206,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,25 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,115 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,23 +403,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,15 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -483,6 +459,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +500,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,138 +518,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,44 +980,44 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5;A1:A3">
+  <conditionalFormatting sqref="A5">
     <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="/">
-      <formula>NOT(ISERROR(SEARCH("/",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("/",A5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="(dänisch)">
-      <formula>NOT(ISERROR(SEARCH("(dänisch)",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("(dänisch)",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
